--- a/Liste de tâches Projet_4.xlsx
+++ b/Liste de tâches Projet_4.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="55">
   <si>
     <t>TÂCHE</t>
   </si>
@@ -151,16 +151,43 @@
     <t>Terminé</t>
   </si>
   <si>
-    <t>clarification du code (indentation, commantaire…)</t>
-  </si>
-  <si>
-    <t>non reconnaissance de contraint</t>
-  </si>
-  <si>
     <t>Création de TotalAction</t>
   </si>
   <si>
     <t>Présentation du panier</t>
+  </si>
+  <si>
+    <t>Création d'une Sidebar panier dépliante</t>
+  </si>
+  <si>
+    <t>VUE CSS</t>
+  </si>
+  <si>
+    <t>fond noir et container blanc, moderne classique.</t>
+  </si>
+  <si>
+    <t>utilisation W3</t>
+  </si>
+  <si>
+    <t>fixer button en bas de page</t>
+  </si>
+  <si>
+    <t>Ajout d'un scroll dans le panier si liste trop longue</t>
+  </si>
+  <si>
+    <t>ajout cascade relation booking ticket</t>
+  </si>
+  <si>
+    <t>ENTITY</t>
+  </si>
+  <si>
+    <t>problème argument validator</t>
+  </si>
+  <si>
+    <t>clarification du code (indentation, commentaire…)</t>
+  </si>
+  <si>
+    <t>récupérations de émail en sessions et ajout a Stripe</t>
   </si>
 </sst>
 </file>
@@ -565,8 +592,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ListeDeTâches" displayName="ListeDeTâches" ref="B2:G30" totalsRowShown="0">
-  <autoFilter ref="B2:G30" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ListeDeTâches" displayName="ListeDeTâches" ref="B2:G34" totalsRowShown="0">
+  <autoFilter ref="B2:G34" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TÂCHE"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CIBLE"/>
@@ -817,10 +844,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:G30"/>
+  <dimension ref="B1:G34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -935,132 +962,133 @@
     </row>
     <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="8">
         <f>--(ListeDeTâches[[#This Row],[% ACHÈVEMENT]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="F8" s="8">
+        <f>--(ListeDeTâches[[#This Row],[% ACHÈVEMENT]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <f>--(ListeDeTâches[[#This Row],[% ACHÈVEMENT]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <f>--(ListeDeTâches[[#This Row],[% ACHÈVEMENT]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8">
-        <f>--(ListeDeTâches[[#This Row],[% ACHÈVEMENT]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <f>--(ListeDeTâches[[#This Row],[% ACHÈVEMENT]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="12">
-        <f>--(ListeDeTâches[[#This Row],[% ACHÈVEMENT]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0</v>
-      </c>
-      <c r="F11" s="8">
-        <f>--(ListeDeTâches[[#This Row],[% ACHÈVEMENT]]&gt;=1)</f>
-        <v>0</v>
-      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="12">
+        <f>--(ListeDeTâches[[#This Row],[% ACHÈVEMENT]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="E12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="8">
         <f>--(ListeDeTâches[[#This Row],[% ACHÈVEMENT]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="E13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="8">
         <f>--(ListeDeTâches[[#This Row],[% ACHÈVEMENT]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -1077,212 +1105,215 @@
       </c>
     </row>
     <row r="15" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="12">
-        <f>--(ListeDeTâches[[#This Row],[% ACHÈVEMENT]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="13"/>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8">
+        <f>--(ListeDeTâches[[#This Row],[% ACHÈVEMENT]]&gt;=1)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8">
+        <f>--(ListeDeTâches[[#This Row],[% ACHÈVEMENT]]&gt;=1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="12">
+        <f>--(ListeDeTâches[[#This Row],[% ACHÈVEMENT]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>22</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D18" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="F16" s="8">
-        <f>--(ListeDeTâches[[#This Row],[% ACHÈVEMENT]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0</v>
-      </c>
-      <c r="F17" s="8">
-        <f>--(ListeDeTâches[[#This Row],[% ACHÈVEMENT]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="12">
-        <f>--(ListeDeTâches[[#This Row],[% ACHÈVEMENT]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="13"/>
+      <c r="E18" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="F18" s="8">
+        <f>--(ListeDeTâches[[#This Row],[% ACHÈVEMENT]]&gt;=1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E19" s="7">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F19" s="8">
         <f>--(ListeDeTâches[[#This Row],[% ACHÈVEMENT]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="F20" s="8">
-        <f>--(ListeDeTâches[[#This Row],[% ACHÈVEMENT]]&gt;=1)</f>
-        <v>0</v>
-      </c>
+      <c r="B20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="12">
+        <f>--(ListeDeTâches[[#This Row],[% ACHÈVEMENT]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="E21" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F21" s="8">
         <f>--(ListeDeTâches[[#This Row],[% ACHÈVEMENT]]&gt;=1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="12">
-        <f>--(ListeDeTâches[[#This Row],[% ACHÈVEMENT]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="13"/>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="F22" s="8">
+        <f>--(ListeDeTâches[[#This Row],[% ACHÈVEMENT]]&gt;=1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E23" s="7">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F23" s="8">
         <f>--(ListeDeTâches[[#This Row],[% ACHÈVEMENT]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="F24" s="8">
-        <f>--(ListeDeTâches[[#This Row],[% ACHÈVEMENT]]&gt;=1)</f>
-        <v>0</v>
-      </c>
+      <c r="B24" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="12">
+        <f>--(ListeDeTâches[[#This Row],[% ACHÈVEMENT]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
       </c>
       <c r="E25" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="8">
         <f>--(ListeDeTâches[[#This Row],[% ACHÈVEMENT]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
       </c>
       <c r="E26" s="7">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F26" s="8">
         <f>--(ListeDeTâches[[#This Row],[% ACHÈVEMENT]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D27" t="s">
         <v>2</v>
@@ -1297,66 +1328,144 @@
     </row>
     <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" s="7">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F28" s="8">
         <f>--(ListeDeTâches[[#This Row],[% ACHÈVEMENT]]&gt;=1)</f>
         <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="E29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="8">
         <f>--(ListeDeTâches[[#This Row],[% ACHÈVEMENT]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="F30" s="8">
+        <f>--(ListeDeTâches[[#This Row],[% ACHÈVEMENT]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1</v>
+      </c>
+      <c r="F31" s="8">
+        <f>--(ListeDeTâches[[#This Row],[% ACHÈVEMENT]]&gt;=1)</f>
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F32" s="8">
+        <f>--(ListeDeTâches[[#This Row],[% ACHÈVEMENT]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F33" s="8">
+        <f>--(ListeDeTâches[[#This Row],[% ACHÈVEMENT]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>38</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C34" t="s">
         <v>27</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D34" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="7">
-        <v>0</v>
-      </c>
-      <c r="F30" s="8">
+      <c r="E34" s="7">
+        <v>0</v>
+      </c>
+      <c r="F34" s="8">
         <f>--(ListeDeTâches[[#This Row],[% ACHÈVEMENT]]&gt;=1)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B3:G30">
+  <conditionalFormatting sqref="B3:G34">
     <cfRule type="expression" dxfId="1" priority="15">
       <formula>AND($E3=0,$E3&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27:E28">
+  <conditionalFormatting sqref="E31:E32">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -1370,13 +1479,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:G28">
+  <conditionalFormatting sqref="B31:G32">
     <cfRule type="expression" dxfId="0" priority="3">
-      <formula>AND($E27=0,$E27&lt;&gt;"")</formula>
+      <formula>AND($E31=0,$E31&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E30">
-    <cfRule type="dataBar" priority="33">
+  <conditionalFormatting sqref="E3:E34">
+    <cfRule type="dataBar" priority="53">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1398,13 +1507,13 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Sélectionnez le pourcentage achevé dans cette colonne. Appuyez sur ALT+FLÈCHE BAS pour ouvrir la liste déroulante, puis sur ENTRÉE pour opérer votre sélection. Une barre d’état indique l’avancement de la tâche" sqref="E2" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="L’indicateur d’achèvement de tâche figurant dans cette colonne sous ce titre est automatiquement mis à jour à mesure qu’une tâche est terminée" sqref="F2" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez les notes dans cette colonne sous ce titre" sqref="G2" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Sélectionnez une entrée dans la liste. Sélectionnez ANNULER, puis appuyez sur ALT+FLÈCHE BAS pour parcourir la liste. Appuyez sur ENTRÉE pour effectuer une sélection" sqref="C3:C30" xr:uid="{00000000-0002-0000-0000-00000A000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Sélectionnez une entrée dans la liste. Sélectionnez ANNULER, puis appuyez sur ALT+FLÈCHE BAS pour parcourir la liste. Appuyez sur ENTRÉE pour effectuer une sélection" sqref="C3:C34" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>"Faible, Normale, Élevée"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Sélectionnez une entrée dans la liste. Sélectionnez ANNULER, puis appuyez sur ALT+FLÈCHE BAS pour parcourir la liste. Appuyez sur ENTRÉE pour effectuer une sélection" sqref="D3:D30" xr:uid="{00000000-0002-0000-0000-00000B000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Sélectionnez une entrée dans la liste. Sélectionnez ANNULER, puis appuyez sur ALT+FLÈCHE BAS pour parcourir la liste. Appuyez sur ENTRÉE pour effectuer une sélection" sqref="D3:D34" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1>"Non commencé, En cours, Reporté, Terminé"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Sélectionnez une entrée dans la liste. Sélectionnez ANNULER, puis appuyez sur ALT+FLÈCHE BAS pour parcourir la liste. Appuyez sur ENTRÉE pour effectuer une sélection" sqref="E3:E30" xr:uid="{00000000-0002-0000-0000-00000C000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Sélectionnez une entrée dans la liste. Sélectionnez ANNULER, puis appuyez sur ALT+FLÈCHE BAS pour parcourir la liste. Appuyez sur ENTRÉE pour effectuer une sélection" sqref="E3:E34" xr:uid="{00000000-0002-0000-0000-00000C000000}">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1430,7 +1539,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E27:E28</xm:sqref>
+          <xm:sqref>E31:E32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="2" id="{F65D1F95-4FE9-4404-B53A-72AB941CB470}">
@@ -1449,7 +1558,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F27:F28</xm:sqref>
+          <xm:sqref>F31:F32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8C6A5CC8-56B3-4028-81B5-C3A4E862D9B7}">
@@ -1460,10 +1569,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E3:E30</xm:sqref>
+          <xm:sqref>E3:E34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="35" id="{94681881-FBDE-4982-9C8F-A86810684A25}">
+          <x14:cfRule type="iconSet" priority="55" id="{94681881-FBDE-4982-9C8F-A86810684A25}">
             <x14:iconSet iconSet="3Symbols" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1479,7 +1588,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F3:F30</xm:sqref>
+          <xm:sqref>F3:F34</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Liste de tâches Projet_4.xlsx
+++ b/Liste de tâches Projet_4.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Liste de tâches" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="54">
   <si>
     <t>TÂCHE</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>Ajout de la mention "Votre transaction est sécurisé par Paiement CIC. Et effectué par le système de paiement Stripe (c). Votre paiement sera réalisé en toute sécurité"</t>
-  </si>
-  <si>
-    <t>Ajout du logo Stripe</t>
   </si>
   <si>
     <t>Service de Paiement Stripe :</t>
@@ -846,8 +843,8 @@
   </sheetPr>
   <dimension ref="B1:G34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -862,7 +859,7 @@
   <sheetData>
     <row r="1" spans="2:7" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -911,7 +908,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -930,7 +927,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -949,7 +946,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -962,10 +959,10 @@
     </row>
     <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -981,10 +978,10 @@
     </row>
     <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -997,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1020,26 +1017,12 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="8">
-        <f>--(ListeDeTâches[[#This Row],[% ACHÈVEMENT]]&gt;=1)</f>
-        <v>0</v>
-      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -1052,13 +1035,13 @@
     </row>
     <row r="12" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="7">
         <v>1</v>
@@ -1070,13 +1053,13 @@
     </row>
     <row r="13" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="7">
         <v>1</v>
@@ -1088,10 +1071,10 @@
     </row>
     <row r="14" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
         <v>2</v>
@@ -1106,7 +1089,7 @@
     </row>
     <row r="15" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -1124,10 +1107,10 @@
     </row>
     <row r="16" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
         <v>2</v>
@@ -1142,7 +1125,7 @@
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -1155,10 +1138,10 @@
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
@@ -1173,13 +1156,13 @@
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" s="7">
         <v>1</v>
@@ -1191,7 +1174,7 @@
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -1204,10 +1187,10 @@
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
@@ -1222,10 +1205,10 @@
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
@@ -1240,13 +1223,13 @@
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23" s="7">
         <v>1</v>
@@ -1258,7 +1241,7 @@
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -1271,7 +1254,7 @@
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
@@ -1287,15 +1270,15 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
         <v>44</v>
-      </c>
-      <c r="C26" t="s">
-        <v>45</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
@@ -1310,7 +1293,7 @@
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
@@ -1328,7 +1311,7 @@
     </row>
     <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
@@ -1344,18 +1327,18 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E29" s="7">
         <v>1</v>
@@ -1367,10 +1350,10 @@
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
         <v>33</v>
-      </c>
-      <c r="C30" t="s">
-        <v>34</v>
       </c>
       <c r="D30" t="s">
         <v>3</v>
@@ -1385,10 +1368,10 @@
     </row>
     <row r="31" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
         <v>3</v>
@@ -1401,15 +1384,15 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
@@ -1424,10 +1407,10 @@
     </row>
     <row r="33" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
@@ -1442,10 +1425,10 @@
     </row>
     <row r="34" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D34" t="s">
         <v>2</v>
@@ -1542,6 +1525,17 @@
           <xm:sqref>E31:E32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8C6A5CC8-56B3-4028-81B5-C3A4E862D9B7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E3:E34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="2" id="{F65D1F95-4FE9-4404-B53A-72AB941CB470}">
             <x14:iconSet iconSet="3Symbols" custom="1">
               <x14:cfvo type="percent">
@@ -1559,17 +1553,6 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>F31:F32</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8C6A5CC8-56B3-4028-81B5-C3A4E862D9B7}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E3:E34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="55" id="{94681881-FBDE-4982-9C8F-A86810684A25}">
